--- a/WebAPP/wwwroot/F04-Baocaoketquadaotao.xlsx
+++ b/WebAPP/wwwroot/F04-Baocaoketquadaotao.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9459AFB9-6B04-42B1-91B9-EEC2EB08CA0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F1591-3E7E-46FB-9AE8-3943DB19702E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cvn2" sheetId="80" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="80" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'cvn2'!$11:$12</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$11:$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,43 +23,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>BÁO CÁO KẾT QUẢ ĐÀO TẠO
 教育結果報告</t>
   </si>
   <si>
+    <t xml:space="preserve">Mã số 管理番号 </t>
+  </si>
+  <si>
     <t>F04/CEV-I-PR-06</t>
+  </si>
+  <si>
+    <t>Lần ban hành 訂番</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày hiệu lực
+有効日 </t>
+  </si>
+  <si>
+    <t>23/06/2023
+2023年06月23日</t>
   </si>
   <si>
     <t>Bên yêu cầu đào tạo:
 教育依頼側</t>
   </si>
   <si>
-    <t>GA Dept</t>
-  </si>
-  <si>
     <t>Bên thực hiện đào tạo:
 教育実施側</t>
   </si>
   <si>
-    <t>HR, QA, EMS</t>
-  </si>
-  <si>
     <t>Nội dung đào tạo: 
 教育の内容</t>
   </si>
   <si>
-    <t xml:space="preserve">Đào tạo công nhân viên mới </t>
-  </si>
-  <si>
     <t>Địa điểm đào tạo:
 教育の場所</t>
   </si>
   <si>
-    <t xml:space="preserve">MP1 </t>
-  </si>
-  <si>
     <t>Danh sách học viên:
 参加者のリスト</t>
   </si>
@@ -68,19 +70,30 @@
 時間</t>
   </si>
   <si>
+    <t>Số điểm đạt:
+合格点数</t>
+  </si>
+  <si>
+    <t>Thang điểm:
+ポイントラダー</t>
+  </si>
+  <si>
     <t>STT
 順</t>
   </si>
   <si>
     <t>Mã NV
 社員コード</t>
-    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>Họ tên 
 教育受け者</t>
   </si>
   <si>
+    <t>Công đoạn quan trọng an toàn điện
+電気安全重要工程</t>
+  </si>
+  <si>
     <t>Bộ phận
 部門</t>
   </si>
@@ -104,57 +117,6 @@
   </si>
   <si>
     <t>Đánh giá /判断</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Đối với kết quả đào tạo nội bộ phòng chỉ ký xác nhận "Bên thực hiên đào tạo" và gạch chéo (\) xác nhận bởi Phòng phụ trách nhân sự </t>
-  </si>
-  <si>
-    <t>Phòng Phụ trách nhân sự
-人事担当課</t>
-  </si>
-  <si>
-    <t>Kiểm tra / 確認</t>
-  </si>
-  <si>
-    <t>Phê duyệt / 承認</t>
-  </si>
-  <si>
-    <t>Người lập / 作成</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã số 管理番号 </t>
-  </si>
-  <si>
-    <t>Lần ban hành 訂番</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày hiệu lực
-有効日 </t>
-  </si>
-  <si>
-    <t>23/06/2023
-2023年06月23日</t>
-  </si>
-  <si>
-    <t>Số điểm đạt:
-合格点数</t>
-  </si>
-  <si>
-    <t>Thang điểm:
-ポイントラダー</t>
-  </si>
-  <si>
-    <t>Công đoạn quan trọng an toàn điện
-電気安全重要工程</t>
-  </si>
-  <si>
-    <t>£</t>
   </si>
   <si>
     <r>
@@ -190,6 +152,9 @@
     <t>注意：記号はＯＫ（合格）とＮＧ（不合格）です．ＮＧなら再教育しなければならない、結果は2回目所で書かれます．</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Đối với kết quả đào tạo nội bộ phòng chỉ ký xác nhận "Bên thực hiên đào tạo" và gạch chéo (\) xác nhận bởi Phòng phụ trách nhân sự </t>
+  </si>
+  <si>
     <t>内部教育結果に対して研修実施側でサイインのみ、なお人事担当者で（/）取り消してください</t>
   </si>
   <si>
@@ -223,6 +188,10 @@
     <t>Phê duyệt của Tổng Giám độc/ 社長の承認</t>
   </si>
   <si>
+    <t>Phòng Phụ trách nhân sự
+人事担当課</t>
+  </si>
+  <si>
     <t>Phê duyệt /
 確認</t>
   </si>
@@ -231,20 +200,22 @@
 /確認</t>
   </si>
   <si>
+    <t>Phê duyệt / 承認</t>
+  </si>
+  <si>
+    <t>Kiểm tra / 確認</t>
+  </si>
+  <si>
+    <t>Người lập / 作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date: </t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>Lê Thị Giang</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>đã ký</t>
   </si>
 </sst>
 </file>
@@ -254,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,13 +329,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -401,12 +365,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
     </font>
     <font>
       <i/>
@@ -423,36 +381,26 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Wingdings 2"/>
-      <family val="1"/>
+      <b/>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Wingdings"/>
       <charset val="2"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -738,332 +686,261 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal_ho so dao tao" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal_ho so dao tao" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1421,10 +1298,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1432,14 +1309,15 @@
     <col min="1" max="1" width="8.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="10" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="56" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="56" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="49" customWidth="1"/>
     <col min="7" max="8" width="18.7109375" style="10" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" style="10" customWidth="1"/>
     <col min="10" max="11" width="22.140625" style="10" customWidth="1"/>
     <col min="12" max="14" width="17.28515625" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="10"/>
+    <col min="15" max="15" width="9.140625" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="9" customHeight="1">
@@ -1459,40 +1337,40 @@
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="35.25" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="94"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="80"/>
       <c r="K2" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="35.25" customHeight="1">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="94"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="80"/>
       <c r="K3" s="12">
         <v>8</v>
       </c>
@@ -1501,20 +1379,20 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="35.25" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="96"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="82"/>
       <c r="K4" s="13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="15"/>
@@ -1537,636 +1415,317 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" s="18" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="62"/>
+      <c r="A6" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="17"/>
-      <c r="H6" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="19"/>
+      <c r="H6" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="83"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" s="18" customFormat="1" ht="36" customHeight="1">
-      <c r="A7" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="74" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="2" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" s="18" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="75" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="75"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="K8" s="19"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:14" s="18" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="75"/>
+      <c r="A9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="61"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="21"/>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" s="18" customFormat="1" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:14" s="18" customFormat="1" ht="35.25" customHeight="1" thickTop="1">
-      <c r="A11" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="80" t="s">
+      <c r="K9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" s="18" customFormat="1" ht="7.5" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" s="18" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A11" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="78" t="s">
+      <c r="B11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="C11" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66" t="s">
+      <c r="F11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="23"/>
+      <c r="G11" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:14" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="13" spans="1:14" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A13" s="57">
-        <v>1</v>
-      </c>
-      <c r="B13" s="64">
-        <v>11897</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="28">
-        <v>80</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A14" s="57">
-        <v>2</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="28"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="54"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" s="18" customFormat="1" ht="24" customHeight="1">
+      <c r="A13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" s="18" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
-      <c r="L14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A15" s="57">
-        <v>3</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="59" t="s">
+    </row>
+    <row r="15" spans="1:14" s="18" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+    </row>
+    <row r="16" spans="1:14" s="18" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="1:11" s="18" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:11" s="18" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" spans="1:11" ht="36" customHeight="1">
+      <c r="C19" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+    </row>
+    <row r="20" spans="1:11" s="35" customFormat="1" ht="33" customHeight="1">
+      <c r="C20" s="57"/>
+      <c r="D20" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="23"/>
-    </row>
-    <row r="16" spans="1:14" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A16" s="57">
-        <v>4</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="23"/>
-    </row>
-    <row r="17" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A17" s="57">
-        <v>5</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="23"/>
-    </row>
-    <row r="18" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A18" s="57">
-        <v>6</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A19" s="57">
-        <v>7</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="23"/>
-    </row>
-    <row r="20" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A20" s="57">
-        <v>8</v>
-      </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A21" s="57">
-        <v>9</v>
-      </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="23"/>
-    </row>
-    <row r="22" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A22" s="57">
-        <v>10</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="23"/>
-    </row>
-    <row r="23" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A23" s="57">
-        <v>11</v>
-      </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A24" s="57">
-        <v>12</v>
-      </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="23"/>
-    </row>
-    <row r="25" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A25" s="57">
-        <v>13</v>
-      </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="23"/>
-    </row>
-    <row r="26" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A26" s="57">
-        <v>14</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="23"/>
-    </row>
-    <row r="27" spans="1:12" s="18" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A27" s="57">
-        <v>15</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="23"/>
-    </row>
-    <row r="28" spans="1:12" s="18" customFormat="1" ht="24" customHeight="1">
-      <c r="A28" s="29" t="s">
+      <c r="K20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" s="18" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A29" s="33" t="s">
+    </row>
+    <row r="21" spans="1:11" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="C21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-    </row>
-    <row r="30" spans="1:12" s="18" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A30" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-    </row>
-    <row r="31" spans="1:12" s="18" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A31" s="38" t="s">
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+    </row>
+    <row r="22" spans="1:11" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="45"/>
+    </row>
+    <row r="23" spans="1:11" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+    </row>
+    <row r="24" spans="1:11" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="C24" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-    </row>
-    <row r="32" spans="1:12" s="18" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="D24" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="47" t="s">
         <v>40</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-    </row>
-    <row r="33" spans="1:11" s="18" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-    </row>
-    <row r="34" spans="1:11" ht="36" customHeight="1">
-      <c r="C34" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-    </row>
-    <row r="35" spans="1:11" s="42" customFormat="1" ht="33" customHeight="1">
-      <c r="C35" s="70"/>
-      <c r="D35" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="C36" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-    </row>
-    <row r="37" spans="1:11" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="52"/>
-    </row>
-    <row r="38" spans="1:11" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-    </row>
-    <row r="39" spans="1:11" s="18" customFormat="1" ht="33" customHeight="1">
-      <c r="C39" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="54" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="A2:H4"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
@@ -2174,20 +1733,24 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:K19"/>
   </mergeCells>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13 B15 B17 B19 B21 B23 B25 B27">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14 B16 B18 B20 B22 B24 B26">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
